--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.29906877175</v>
+        <v>418158.5146855783</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.29906877175</v>
+        <v>418158.5146855783</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85648.31301824929</v>
+        <v>5851768.086141269</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85648.31301824929</v>
+        <v>5851768.086141269</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418850384.326075</v>
+        <v>52342794.16258249</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15282.52989056802</v>
+        <v>1276525.525997863</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29191.94451945168</v>
+        <v>2315222.456175491</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43106.93387337266</v>
+        <v>3353919.386353118</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57318.8089501819</v>
+        <v>4390643.360479255</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71530.68402699115</v>
+        <v>5427367.334605394</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85742.55910380041</v>
+        <v>6464091.308731531</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99940.72276806405</v>
+        <v>7501747.171905983</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114138.8864323277</v>
+        <v>8539403.035080438</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128540.7614336274</v>
+        <v>9532451.877980994</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142984.6624163025</v>
+        <v>10533863.89117526</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157428.5633989775</v>
+        <v>11535275.90436953</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171872.4643816525</v>
+        <v>12536687.9175638</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186316.3653643276</v>
+        <v>13538099.93075807</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200774.6472404986</v>
+        <v>14538133.79951353</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>215232.9291166699</v>
+        <v>15538167.66826899</v>
       </c>
     </row>
   </sheetData>
